--- a/excels/config/server/equip/server_equip_intensify_config.xlsx
+++ b/excels/config/server/equip/server_equip_intensify_config.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="634"/>
+    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="634"/>
   </bookViews>
   <sheets>
-    <sheet name="attr_intensify_config" sheetId="7" r:id="rId1"/>
+    <sheet name="server_attr_intensify_config" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>装备强化方案</t>
-  </si>
-  <si>
-    <t>目标等级</t>
+    <t>目标等级(必须和key一致)</t>
   </si>
   <si>
     <t>C消耗强化石</t>
@@ -83,40 +80,37 @@
     <t>index</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
-    <t>C_qhs</t>
-  </si>
-  <si>
-    <t>B_qhs</t>
-  </si>
-  <si>
-    <t>A_qhs</t>
-  </si>
-  <si>
-    <t>S_qhs</t>
-  </si>
-  <si>
-    <t>SS_sqh</t>
-  </si>
-  <si>
-    <t>C_gold</t>
-  </si>
-  <si>
-    <t>B_gold</t>
-  </si>
-  <si>
-    <t>A_gold</t>
-  </si>
-  <si>
-    <t>S_gold</t>
-  </si>
-  <si>
-    <t>SS_gold</t>
+    <t>0_qhs</t>
+  </si>
+  <si>
+    <t>1_qhs</t>
+  </si>
+  <si>
+    <t>2_qhs</t>
+  </si>
+  <si>
+    <t>3_qhs</t>
+  </si>
+  <si>
+    <t>4_sqh</t>
+  </si>
+  <si>
+    <t>0_gold</t>
+  </si>
+  <si>
+    <t>1_gold</t>
+  </si>
+  <si>
+    <t>2_gold</t>
+  </si>
+  <si>
+    <t>3_gold</t>
+  </si>
+  <si>
+    <t>4_gold</t>
   </si>
   <si>
     <t>main_attr_add</t>
@@ -1147,7 +1141,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{371EF497-1FDF-4D30-A5CE-073B0E2D56F5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A02EE6D7-31D8-4D2B-8E9B-FEA1FBCDAA89}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1430,24 +1424,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.175" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="15.0083333333333" customWidth="1"/>
-    <col min="4" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="16" max="17" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.0083333333333" customWidth="1"/>
+    <col min="3" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="16" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="57" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="57" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,67 +1486,61 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+    </row>
+    <row r="2" ht="31.25" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" ht="31.25" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:17">
+    <row r="3" ht="30.5" customHeight="1" spans="1:16">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1561,1157 +1548,1096 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*10*2</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <f>B3*10*3</f>
+        <v>30</v>
+      </c>
+      <c r="F3" s="7">
+        <f>B3*10*4</f>
+        <v>40</v>
+      </c>
+      <c r="G3" s="7">
+        <f>B3*10*5</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
+      </c>
+      <c r="I3" s="7">
+        <v>200</v>
+      </c>
+      <c r="J3" s="7">
+        <v>300</v>
+      </c>
+      <c r="K3" s="7">
+        <v>400</v>
+      </c>
+      <c r="L3" s="7">
+        <v>500</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.1</v>
+      </c>
+      <c r="N3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7">
-        <f>C3*10*2</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="7">
-        <f>C3*10*3</f>
-        <v>30</v>
-      </c>
-      <c r="G3" s="7">
-        <f>C3*10*4</f>
-        <v>40</v>
-      </c>
-      <c r="H3" s="7">
-        <f>C3*10*5</f>
-        <v>50</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="O3" s="7">
         <v>100</v>
       </c>
-      <c r="J3" s="7">
-        <v>200</v>
-      </c>
-      <c r="K3" s="7">
-        <v>300</v>
-      </c>
-      <c r="L3" s="7">
-        <v>400</v>
-      </c>
-      <c r="M3" s="7">
-        <v>500</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1.1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="P3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:17">
+    <row r="4" ht="30.5" customHeight="1" spans="1:16">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D22" si="0">B4*10*2</f>
+        <v>40</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E22" si="1">B4*10*3</f>
+        <v>60</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F22" si="2">B4*10*4</f>
+        <v>80</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G22" si="3">B4*10*5</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="9">
+        <v>200</v>
+      </c>
+      <c r="I4" s="9">
+        <v>400</v>
+      </c>
+      <c r="J4" s="9">
+        <v>600</v>
+      </c>
+      <c r="K4" s="9">
+        <v>800</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="N4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" ref="E4:E22" si="0">C4*10*2</f>
-        <v>40</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F22" si="1">C4*10*3</f>
-        <v>60</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G22" si="2">C4*10*4</f>
-        <v>80</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H22" si="3">C4*10*5</f>
+      <c r="O4" s="9">
         <v>100</v>
       </c>
-      <c r="I4" s="9">
-        <v>200</v>
-      </c>
-      <c r="J4" s="9">
-        <v>400</v>
-      </c>
-      <c r="K4" s="9">
-        <v>600</v>
-      </c>
-      <c r="L4" s="9">
-        <v>800</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1000</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="O4" s="9">
-        <v>1</v>
-      </c>
-      <c r="P4" s="9">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="15">
+      <c r="P4" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:17">
+    <row r="5" ht="30.5" customHeight="1" spans="1:16">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <f t="shared" ref="C4:C22" si="4">B5*10*1</f>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" ref="D4:D22" si="4">C5*10*1</f>
-        <v>30</v>
-      </c>
-      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F5" s="7">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G5" s="7">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
+      <c r="H5" s="7">
+        <v>300</v>
+      </c>
       <c r="I5" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J5" s="7">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K5" s="7">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L5" s="7">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M5" s="7">
-        <v>1500</v>
+        <v>1.3</v>
       </c>
       <c r="N5" s="7">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
         <v>100</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="P5" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:17">
+    <row r="6" ht="30.5" customHeight="1" spans="1:16">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="E6" s="9">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F6" s="9">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G6" s="9">
+      <c r="F6" s="9">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H6" s="9">
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
+      <c r="H6" s="9">
+        <v>400</v>
+      </c>
       <c r="I6" s="9">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J6" s="9">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K6" s="9">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L6" s="9">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M6" s="9">
-        <v>2000</v>
+        <v>1.4</v>
       </c>
       <c r="N6" s="9">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
         <v>100</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="P6" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:17">
+    <row r="7" ht="30.5" customHeight="1" spans="1:16">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E7" s="7">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
+      <c r="H7" s="7">
+        <v>500</v>
+      </c>
       <c r="I7" s="7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K7" s="7">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L7" s="7">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M7" s="7">
-        <v>2500</v>
+        <v>1.5</v>
       </c>
       <c r="N7" s="7">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="O7" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="P7" s="7">
         <v>100</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="P7" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:17">
+    <row r="8" ht="30.5" customHeight="1" spans="1:16">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="E8" s="9">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F8" s="9">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G8" s="9">
+      <c r="F8" s="9">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="H8" s="9">
+      <c r="G8" s="9">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
+      <c r="H8" s="9">
+        <v>600</v>
+      </c>
       <c r="I8" s="9">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="J8" s="9">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K8" s="9">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L8" s="9">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M8" s="9">
-        <v>3000</v>
+        <v>1.6</v>
       </c>
       <c r="N8" s="9">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="O8" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="P8" s="9">
         <v>95</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="P8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:17">
+    <row r="9" ht="30.5" customHeight="1" spans="1:16">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="E9" s="7">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="H9" s="7">
+      <c r="G9" s="7">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
+      <c r="H9" s="7">
+        <v>700</v>
+      </c>
       <c r="I9" s="7">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="J9" s="7">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K9" s="7">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="L9" s="7">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M9" s="7">
-        <v>3500</v>
+        <v>1.7</v>
       </c>
       <c r="N9" s="7">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="O9" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="P9" s="7">
         <v>90</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="P9" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:17">
+    <row r="10" ht="30.5" customHeight="1" spans="1:16">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="E10" s="9">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="F10" s="9">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="G10" s="9">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="H10" s="9">
+      <c r="G10" s="9">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
+      <c r="H10" s="9">
+        <v>800</v>
+      </c>
       <c r="I10" s="9">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="J10" s="9">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K10" s="9">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="L10" s="9">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M10" s="9">
-        <v>4000</v>
+        <v>1.8</v>
       </c>
       <c r="N10" s="9">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="O10" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="P10" s="9">
         <v>85</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:17">
+    <row r="11" ht="30.5" customHeight="1" spans="1:16">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="E11" s="7">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F11" s="7">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="H11" s="7">
+      <c r="G11" s="7">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
+      <c r="H11" s="7">
+        <v>900</v>
+      </c>
       <c r="I11" s="7">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="J11" s="7">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="K11" s="7">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="L11" s="7">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="M11" s="7">
-        <v>4500</v>
+        <v>1.9</v>
       </c>
       <c r="N11" s="7">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="O11" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="P11" s="7">
         <v>80</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="P11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:17">
+    <row r="12" ht="30.5" customHeight="1" spans="1:16">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12" s="9">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="E12" s="9">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F12" s="9">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G12" s="9">
+      <c r="F12" s="9">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H12" s="9">
+      <c r="G12" s="9">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
+      <c r="H12" s="9">
+        <v>1000</v>
+      </c>
       <c r="I12" s="9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J12" s="9">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K12" s="9">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L12" s="9">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M12" s="9">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="N12" s="9">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="O12" s="9">
-        <v>1.1</v>
-      </c>
-      <c r="P12" s="9">
         <v>75</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="P12" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:17">
+    <row r="13" ht="30.5" customHeight="1" spans="1:16">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="E13" s="7">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="F13" s="7">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="G13" s="7">
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="H13" s="7">
+      <c r="G13" s="7">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
+      <c r="H13" s="7">
+        <v>1100</v>
+      </c>
       <c r="I13" s="7">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="J13" s="7">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="K13" s="7">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="L13" s="7">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="M13" s="7">
-        <v>5500</v>
+        <v>2.1</v>
       </c>
       <c r="N13" s="7">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O13" s="7">
-        <v>1.1</v>
-      </c>
-      <c r="P13" s="7">
         <v>70</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="P13" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:17">
+    <row r="14" ht="30.5" customHeight="1" spans="1:16">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="E14" s="9">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="9">
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="G14" s="9">
+      <c r="F14" s="9">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="H14" s="9">
+      <c r="G14" s="9">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
+      <c r="H14" s="9">
+        <v>1200</v>
+      </c>
       <c r="I14" s="9">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="J14" s="9">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K14" s="9">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="L14" s="9">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M14" s="9">
-        <v>6000</v>
+        <v>2.2</v>
       </c>
       <c r="N14" s="9">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="O14" s="9">
-        <v>1.1</v>
-      </c>
-      <c r="P14" s="9">
         <v>65</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="P14" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:17">
+    <row r="15" ht="30.5" customHeight="1" spans="1:16">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="E15" s="7">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="F15" s="7">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
-      <c r="G15" s="7">
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>520</v>
       </c>
-      <c r="H15" s="7">
+      <c r="G15" s="7">
         <f t="shared" si="3"/>
         <v>650</v>
       </c>
+      <c r="H15" s="7">
+        <v>1300</v>
+      </c>
       <c r="I15" s="7">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="7">
-        <v>2600</v>
+        <v>3900</v>
       </c>
       <c r="K15" s="7">
-        <v>3900</v>
+        <v>5200</v>
       </c>
       <c r="L15" s="7">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="M15" s="7">
-        <v>6500</v>
+        <v>2.3</v>
       </c>
       <c r="N15" s="7">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O15" s="7">
-        <v>1.1</v>
-      </c>
-      <c r="P15" s="7">
         <v>60</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="P15" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:17">
+    <row r="16" ht="30.5" customHeight="1" spans="1:16">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="E16" s="9">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="F16" s="9">
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="G16" s="9">
+      <c r="F16" s="9">
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="H16" s="9">
+      <c r="G16" s="9">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
+      <c r="H16" s="9">
+        <v>1400</v>
+      </c>
       <c r="I16" s="9">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="J16" s="9">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K16" s="9">
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="L16" s="9">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="M16" s="9">
-        <v>7000</v>
+        <v>2.4</v>
       </c>
       <c r="N16" s="9">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="O16" s="9">
-        <v>1.1</v>
-      </c>
-      <c r="P16" s="9">
         <v>55</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="P16" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:17">
+    <row r="17" ht="30.5" customHeight="1" spans="1:16">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="E17" s="7">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F17" s="7">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="G17" s="7">
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G17" s="7">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
+      <c r="H17" s="7">
+        <v>1500</v>
+      </c>
       <c r="I17" s="7">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J17" s="7">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="K17" s="7">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L17" s="7">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M17" s="7">
-        <v>7500</v>
+        <v>2.5</v>
       </c>
       <c r="N17" s="7">
-        <v>2.5</v>
+        <v>1.15</v>
       </c>
       <c r="O17" s="7">
-        <v>1.15</v>
-      </c>
-      <c r="P17" s="7">
         <v>50</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="P17" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:17">
+    <row r="18" ht="30.5" customHeight="1" spans="1:16">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="E18" s="9">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="F18" s="9">
+      <c r="E18" s="9">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="G18" s="9">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="H18" s="9">
+      <c r="G18" s="9">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
+      <c r="H18" s="9">
+        <v>1600</v>
+      </c>
       <c r="I18" s="9">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="J18" s="9">
-        <v>3200</v>
+        <v>4800</v>
       </c>
       <c r="K18" s="9">
-        <v>4800</v>
+        <v>6400</v>
       </c>
       <c r="L18" s="9">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="M18" s="9">
-        <v>8000</v>
+        <v>2.6</v>
       </c>
       <c r="N18" s="9">
-        <v>2.6</v>
+        <v>1.15</v>
       </c>
       <c r="O18" s="9">
-        <v>1.15</v>
-      </c>
-      <c r="P18" s="9">
         <v>45</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="P18" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:17">
+    <row r="19" ht="30.5" customHeight="1" spans="1:16">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="E19" s="7">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="F19" s="7">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="G19" s="7">
+      <c r="F19" s="7">
         <f t="shared" si="2"/>
         <v>680</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="3"/>
         <v>850</v>
       </c>
+      <c r="H19" s="7">
+        <v>1700</v>
+      </c>
       <c r="I19" s="7">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="J19" s="7">
-        <v>3400</v>
+        <v>5100</v>
       </c>
       <c r="K19" s="7">
-        <v>5100</v>
+        <v>6800</v>
       </c>
       <c r="L19" s="7">
-        <v>6800</v>
+        <v>8500</v>
       </c>
       <c r="M19" s="7">
-        <v>8500</v>
+        <v>2.7</v>
       </c>
       <c r="N19" s="7">
-        <v>2.7</v>
+        <v>1.15</v>
       </c>
       <c r="O19" s="7">
-        <v>1.15</v>
-      </c>
-      <c r="P19" s="7">
         <v>40</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="P19" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:17">
+    <row r="20" ht="30.5" customHeight="1" spans="1:16">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="E20" s="9">
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="F20" s="9">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="G20" s="9">
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="H20" s="9">
+      <c r="G20" s="9">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
+      <c r="H20" s="9">
+        <v>1800</v>
+      </c>
       <c r="I20" s="9">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="J20" s="9">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="K20" s="9">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="L20" s="9">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="M20" s="9">
-        <v>9000</v>
+        <v>2.8</v>
       </c>
       <c r="N20" s="9">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="O20" s="9">
-        <v>1.15</v>
-      </c>
-      <c r="P20" s="9">
         <v>35</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="P20" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:17">
+    <row r="21" ht="30.5" customHeight="1" spans="1:16">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
-      </c>
-      <c r="D21" s="7">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="E21" s="7">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="F21" s="7">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="G21" s="7">
+      <c r="F21" s="7">
         <f t="shared" si="2"/>
         <v>760</v>
       </c>
-      <c r="H21" s="7">
+      <c r="G21" s="7">
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
+      <c r="H21" s="7">
+        <v>1900</v>
+      </c>
       <c r="I21" s="7">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="J21" s="7">
-        <v>3800</v>
+        <v>5700</v>
       </c>
       <c r="K21" s="7">
-        <v>5700</v>
+        <v>7600</v>
       </c>
       <c r="L21" s="7">
-        <v>7600</v>
+        <v>9500</v>
       </c>
       <c r="M21" s="7">
-        <v>9500</v>
+        <v>2.9</v>
       </c>
       <c r="N21" s="7">
-        <v>2.9</v>
+        <v>1.15</v>
       </c>
       <c r="O21" s="7">
-        <v>1.15</v>
-      </c>
-      <c r="P21" s="7">
         <v>30</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="P21" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:17">
+    <row r="22" ht="30.5" customHeight="1" spans="1:16">
       <c r="A22" s="10">
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C22" s="11">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="E22" s="11">
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="F22" s="11">
+      <c r="E22" s="11">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="G22" s="11">
+      <c r="F22" s="11">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="H22" s="11">
+      <c r="G22" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
+      <c r="H22" s="11">
+        <v>2000</v>
+      </c>
       <c r="I22" s="11">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="J22" s="11">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K22" s="11">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L22" s="11">
-        <v>8000</v>
-      </c>
-      <c r="M22" s="11">
         <v>10000</v>
       </c>
-      <c r="N22" s="9">
+      <c r="M22" s="9">
         <v>3</v>
       </c>
+      <c r="N22" s="11">
+        <v>1.2</v>
+      </c>
       <c r="O22" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="P22" s="11">
         <v>25</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="P22" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/server/equip/server_equip_intensify_config.xlsx
+++ b/excels/config/server/equip/server_equip_intensify_config.xlsx
@@ -95,7 +95,7 @@
     <t>3_qhs</t>
   </si>
   <si>
-    <t>4_sqh</t>
+    <t>4_qhs</t>
   </si>
   <si>
     <t>0_gold</t>
@@ -1141,7 +1141,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A02EE6D7-31D8-4D2B-8E9B-FEA1FBCDAA89}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DCE10566-BFB3-45E7-9831-A41218B08321}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1424,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2638,6 +2638,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" ht="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
